--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3093603.622310815</v>
+        <v>3086586.607419103</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>106.3355174722014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>369.6101255868925</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>77.72878559814586</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>151.0926722830482</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>169.3331719059337</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>153.023179360801</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>249.9173469706777</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>5.983388191319604</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>127.8224738943862</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113171</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50.72321576646684</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>7.496242627249307</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>149.2813529905931</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.347835945219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>169.6910884463939</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.5752847581511</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>48.18164089484993</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>170.9654339846711</v>
       </c>
       <c r="W28" t="n">
-        <v>139.4093107389918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>7.171520718183506</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>170.5809693952297</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>167.9744203439442</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0314030821039</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>90.45344662162493</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>276.4348282950964</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>77.43280114252575</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>137.749763795565</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>166.2450749839009</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>15.74955790720898</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>225.1809026611662</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.202900274159</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="3">
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W4" t="n">
-        <v>649.6150593598222</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X4" t="n">
-        <v>421.6255084618049</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.4137200851862</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C5" t="n">
-        <v>940.4137200851862</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.15289212512</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1327.013560149308</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,10 +4655,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1176.876864157142</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>807.9143472167307</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.476704221264</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1563.476704221264</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5074,13 +5074,13 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>441.900558318119</v>
+        <v>576.0756695821905</v>
       </c>
       <c r="C13" t="n">
-        <v>272.964375390212</v>
+        <v>576.0756695821905</v>
       </c>
       <c r="D13" t="n">
-        <v>272.964375390212</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E13" t="n">
-        <v>272.964375390212</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>272.964375390212</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>104.7890537100326</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5232,19 +5232,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X13" t="n">
-        <v>441.900558318119</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.900558318119</v>
+        <v>757.7241344124302</v>
       </c>
     </row>
     <row r="14">
@@ -5260,43 +5260,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.505047571597</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1333.825180851558</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.4843764226425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1164.055751909234</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>936.0662010112162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>715.2736218676861</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147083</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211725</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216475</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471237</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974671</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980068</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585751</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473459</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473459</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473459</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267572</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1044.311772267572</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1044.311772267572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>894.4654733330078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514085</v>
@@ -5761,13 +5761,13 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277036</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>921.5583256030193</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.96990386717</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>524.5778132641557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1216.436027274886</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1216.436027274886</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>927.0188572379255</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>927.0188572379255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>706.2262780943954</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>524.5778132641557</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="C25" t="n">
-        <v>355.6416303362487</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="D25" t="n">
-        <v>355.6416303362487</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W25" t="n">
-        <v>754.8946022306075</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="X25" t="n">
-        <v>706.2262780943954</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="Y25" t="n">
-        <v>706.2262780943954</v>
+        <v>385.5899330013841</v>
       </c>
     </row>
     <row r="26">
@@ -6205,10 +6205,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,19 +6217,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,10 +6238,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465859</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>3540.192194764784</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>3870.054822428817</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>4253.421048821323</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>693.7762810288177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C28" t="n">
-        <v>524.8400981009108</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D28" t="n">
-        <v>524.8400981009108</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352016</v>
+        <v>926.0201707730128</v>
       </c>
       <c r="W28" t="n">
-        <v>1103.414296757075</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="X28" t="n">
-        <v>875.4247458590575</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y28" t="n">
-        <v>875.4247458590575</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515096</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>2786.879505108311</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>3400.7765748652</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>3708.096708145162</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>4037.959335809195</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>4317.499401027892</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3911.319034730711</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>3911.319034730711</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>3761.202395318376</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>3613.289301735982</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>3466.399354238072</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3466.399354238072</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3466.399354238072</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U31" t="n">
-        <v>4637.069157803799</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V31" t="n">
-        <v>4382.384669597912</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W31" t="n">
-        <v>4092.967499560951</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X31" t="n">
-        <v>4092.967499560951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y31" t="n">
-        <v>4092.967499560951</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6697,13 +6697,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6724,28 +6724,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>932.1883377003194</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3946.68490697682</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4580.10833791557</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4356.322922705076</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>4356.322922705076</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>4356.322922705076</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W34" t="n">
-        <v>4356.322922705076</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X34" t="n">
-        <v>4128.333371807059</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y34" t="n">
-        <v>4128.333371807059</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6961,10 +6961,10 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2484.468242641993</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3628.091576844582</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4658.412351776497</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4434.626936566002</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>4145.49829777956</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>4145.49829777956</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W37" t="n">
-        <v>3856.081127742599</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X37" t="n">
-        <v>3628.091576844582</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y37" t="n">
-        <v>3628.091576844582</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="38">
@@ -7183,16 +7183,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207829</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701562</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4091.069939605065</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3922.133756677158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3922.133756677158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3774.220663094764</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4782.639622365276</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4782.639622365276</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4493.510983578834</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4493.510983578834</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4493.510983578834</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4493.510983578834</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4272.718404435304</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7435,13 +7435,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T43" t="n">
-        <v>1159.855084922379</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U43" t="n">
-        <v>1159.855084922379</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V43" t="n">
-        <v>1159.855084922379</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W43" t="n">
-        <v>1159.855084922379</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="X43" t="n">
-        <v>931.8655340243621</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="Y43" t="n">
-        <v>711.072954880832</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="44">
@@ -7657,13 +7657,13 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899126</v>
@@ -7730,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211722</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>579.068505649155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>410.1323227212481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>260.0156833089123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557903</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>981.5095496229249</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>760.7169704793947</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>171.2966883299264</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>50.62661940943531</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>80.50021372615134</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714816</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>104.8749102765743</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10114,13 +10114,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>253.7371603504728</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>91.23759968302028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445216</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.49733361305218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>306.1147370139954</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445216</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>29.47535963978169</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445216</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>283.6093329825487</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445216</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>97.89225725174552</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.4175857402868</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.5506271913442</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.23681740687582</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>116.5462639521835</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>29.91828370522651</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>177.5280144941872</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>81.17220933915686</v>
       </c>
       <c r="W28" t="n">
-        <v>147.1136875975992</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>103.2477247460885</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>50.96659166315959</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>29.94638963965906</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>40.67825230693327</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>107.4673633619783</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>10.08817004149461</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>120.4880088410775</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>83.79779726282425</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>120.2779233526901</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>130.6844047393602</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26079,13 +26079,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>61.34209567542484</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>750084.1514670788</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="G2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="N2" t="n">
         <v>625646.4955803343</v>
       </c>
-      <c r="G2" t="n">
-        <v>625646.4955803338</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803344</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="3">
@@ -26380,31 +26380,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.898095428667148e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641531071072677e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,22 +26426,22 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007509</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007421</v>
+        <v>7916.73165600742</v>
       </c>
       <c r="I4" t="n">
+        <v>7916.731656007481</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007481</v>
       </c>
       <c r="K4" t="n">
         <v>7916.73165600748</v>
@@ -26450,16 +26450,16 @@
         <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007396</v>
       </c>
       <c r="N4" t="n">
         <v>7916.73165600748</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.73165600748</v>
       </c>
     </row>
     <row r="5">
@@ -26478,37 +26478,37 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871667</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-163910.5901024481</v>
       </c>
       <c r="C6" t="n">
-        <v>426057.2891120964</v>
+        <v>426057.2891120962</v>
       </c>
       <c r="D6" t="n">
-        <v>426057.2891120964</v>
+        <v>426057.2891120961</v>
       </c>
       <c r="E6" t="n">
-        <v>582.4014987139672</v>
+        <v>-392.1897610076021</v>
       </c>
       <c r="F6" t="n">
-        <v>525742.4379756103</v>
+        <v>524767.8467158887</v>
       </c>
       <c r="G6" t="n">
-        <v>525742.4379756092</v>
+        <v>524767.8467158884</v>
       </c>
       <c r="H6" t="n">
-        <v>525742.4379756101</v>
+        <v>524767.8467158881</v>
       </c>
       <c r="I6" t="n">
-        <v>525742.4379756099</v>
+        <v>524767.8467158885</v>
       </c>
       <c r="J6" t="n">
-        <v>349319.2187830172</v>
+        <v>348344.6275232952</v>
       </c>
       <c r="K6" t="n">
-        <v>525742.4379756104</v>
+        <v>524767.8467158881</v>
       </c>
       <c r="L6" t="n">
-        <v>525742.4379756099</v>
+        <v>524767.8467158882</v>
       </c>
       <c r="M6" t="n">
-        <v>390941.4227417732</v>
+        <v>389966.8314820509</v>
       </c>
       <c r="N6" t="n">
-        <v>525742.4379756101</v>
+        <v>524767.8467158887</v>
       </c>
       <c r="O6" t="n">
-        <v>525742.4379756098</v>
+        <v>524767.8467158885</v>
       </c>
       <c r="P6" t="n">
-        <v>525742.4379756104</v>
+        <v>524767.8467158884</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,10 +26752,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26804,13 +26804,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26819,10 +26819,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="M4" t="n">
         <v>1215.213643253574</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>258.9373742988062</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.62781306916105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>86.9383544042894</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>208.7942127384451</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>203.5903693376348</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>216.9047667501199</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>14.22364173782685</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>21.87414536972193</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>104.7656946500053</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>210.4649321663382</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>84.32306505563268</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.448847722228882e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.115261047703417e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29975,7 +29975,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.570008398589881e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35257,22 +35257,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35652,7 +35652,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>504.4912617279393</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>361.0509964599017</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789769</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>390.9245907766178</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958063</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>387.2386125176826</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
         <v>803.580930408112</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504664</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>460.8305752819975</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>401.6619767334867</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>140.5103663981263</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349813</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
@@ -37630,7 +37630,7 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>616.5391140644617</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>362.6699330377946</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
         <v>803.580930408112</v>
@@ -38034,7 +38034,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>594.033710033015</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3086586.607419103</v>
+        <v>3091525.870268137</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8785190.206982883</v>
+        <v>8785190.206982881</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>106.3355174722014</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>369.4177460120384</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>117.339905340422</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>169.3331719059337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>50.05665370612839</v>
       </c>
       <c r="T7" t="n">
-        <v>203.1609600883623</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>29.56416824291643</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>5.983388191319604</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>47.14167849255895</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113171</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>36.56241635926716</v>
       </c>
       <c r="D13" t="n">
-        <v>50.72321576646684</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002183</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051995</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.5752847581511</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>49.14757544257724</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>170.9654339846711</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>170.5809693952297</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>172.7067178467371</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>185.0314030821039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>276.4348282950964</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>166.2450749839009</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>225.1809026611662</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335.6874762441716</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1318.738820974878</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>907.7529161852704</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.2873163082934</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="3">
@@ -4409,34 +4409,34 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>597.2403795762991</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2347.417756953369</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2093.65597159146</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1762.593084247889</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y5" t="n">
-        <v>983.8402196404209</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,10 +4655,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>308.6274700262513</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>835.9098068403443</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>424.9239020507368</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>411.0004979893277</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>83.80577802533054</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2636.076575092838</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
         <v>498.8626623130036</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="11">
@@ -5020,52 +5020,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5083,7 +5083,7 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,16 +5108,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.0756695821905</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C13" t="n">
-        <v>576.0756695821905</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>985.7136853104475</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>757.7241344124302</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y13" t="n">
-        <v>757.7241344124302</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5284,13 +5284,13 @@
         <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,40 +5743,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6010,10 +6010,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011342</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383447</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>385.5899330013841</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6217,7 +6217,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,7 +6226,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514086</v>
@@ -6238,13 +6238,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6308,10 +6308,10 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>415.8104215925219</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>415.8104215925219</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925219</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6387,10 +6387,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1449.27225495934</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1449.27225495934</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333287</v>
+        <v>1449.27225495934</v>
       </c>
       <c r="V28" t="n">
-        <v>926.0201707730128</v>
+        <v>1449.27225495934</v>
       </c>
       <c r="W28" t="n">
-        <v>636.6030007360521</v>
+        <v>1159.855084922379</v>
       </c>
       <c r="X28" t="n">
-        <v>636.6030007360521</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y28" t="n">
-        <v>415.8104215925219</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6472,43 +6472,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,16 +6530,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126483</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
         <v>779.0639759471194</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1326.612261067772</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1037.48362228133</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>782.7991340754431</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>493.3819640384826</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,7 +6700,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514086</v>
@@ -6727,25 +6727,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6861,10 +6861,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
         <v>779.0639759471194</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V34" t="n">
-        <v>755.1831334811264</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441658</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6934,55 +6934,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765191</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,25 +7177,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383447</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>675.0071030383447</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W43" t="n">
-        <v>507.0827848727882</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X43" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655742</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9008,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>234.4116509503158</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>130.6844047393607</v>
       </c>
       <c r="D13" t="n">
-        <v>97.89225725174552</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>112.0695782210727</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.393833183385</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>29.91828370522651</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>148.773234541026</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>81.17220933915686</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>50.96659166315959</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>48.84084321165213</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>40.67825230693327</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>10.08817004149461</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>120.2779233526901</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>61.34209567542484</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="12">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="F2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803344</v>
-      </c>
       <c r="G2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="I2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="J2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="N2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="K2" t="n">
-        <v>625646.4955803339</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803339</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803343</v>
-      </c>
       <c r="O2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="P2" t="n">
         <v>625646.4955803341</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338368</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007509</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.73165600742</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007481</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="L4" t="n">
+        <v>7916.731656007482</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007525</v>
+      </c>
+      <c r="N4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="M4" t="n">
-        <v>7916.731656007396</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.73165600748</v>
-      </c>
       <c r="O4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26490,19 +26490,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163910.5901024481</v>
+        <v>-163910.5901024484</v>
       </c>
       <c r="C6" t="n">
-        <v>426057.2891120962</v>
+        <v>426057.2891120963</v>
       </c>
       <c r="D6" t="n">
-        <v>426057.2891120961</v>
+        <v>426057.2891120964</v>
       </c>
       <c r="E6" t="n">
-        <v>-392.1897610076021</v>
+        <v>484.9423727415844</v>
       </c>
       <c r="F6" t="n">
-        <v>524767.8467158887</v>
+        <v>525644.978849638</v>
       </c>
       <c r="G6" t="n">
-        <v>524767.8467158884</v>
+        <v>525644.9788496381</v>
       </c>
       <c r="H6" t="n">
-        <v>524767.8467158881</v>
+        <v>525644.978849638</v>
       </c>
       <c r="I6" t="n">
-        <v>524767.8467158885</v>
+        <v>525644.9788496378</v>
       </c>
       <c r="J6" t="n">
-        <v>348344.6275232952</v>
+        <v>349221.7596570449</v>
       </c>
       <c r="K6" t="n">
-        <v>524767.8467158881</v>
+        <v>525644.9788496383</v>
       </c>
       <c r="L6" t="n">
-        <v>524767.8467158882</v>
+        <v>525644.978849638</v>
       </c>
       <c r="M6" t="n">
-        <v>389966.8314820509</v>
+        <v>390843.9636158012</v>
       </c>
       <c r="N6" t="n">
-        <v>524767.8467158887</v>
+        <v>525644.9788496378</v>
       </c>
       <c r="O6" t="n">
-        <v>524767.8467158885</v>
+        <v>525644.9788496379</v>
       </c>
       <c r="P6" t="n">
-        <v>524767.8467158884</v>
+        <v>525644.9788496379</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>258.9373742988062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>44.36642400875661</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592652</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>86.9383544042894</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>99.10841501723583</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>216.9047667501199</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>162.0888852438905</v>
       </c>
       <c r="T7" t="n">
-        <v>21.87414536972193</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>122.3671480019448</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>210.4649321663382</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.448847722228882e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.570008398589881e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32958,13 +32958,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32979,7 +32979,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33107,10 +33107,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33119,7 +33119,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,13 +33131,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33195,13 +33195,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647497</v>
@@ -33216,7 +33216,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33271,7 +33271,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813463</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33344,10 +33344,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33356,7 +33356,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,13 +33368,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33432,13 +33432,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33453,7 +33453,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33581,10 +33581,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33593,7 +33593,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,13 +33605,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
@@ -35728,22 +35728,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36369,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
@@ -36448,16 +36448,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914241</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36606,19 +36606,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
@@ -36685,16 +36685,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36840,22 +36840,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
@@ -36922,19 +36922,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056037</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37080,19 +37080,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
@@ -37159,19 +37159,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056037</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
